--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10102_Logout.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10102_Logout.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D03CF2-4938-43DC-8C18-C797E5BD8F71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F97C3A8-3D12-4A01-9D95-47BE87743145}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2685" windowWidth="24000" windowHeight="10830" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -48,33 +48,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{E5E4B739-0C30-4C90-9AED-820AA7B99B4D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」と
-訳してください。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
@@ -95,77 +68,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{35C341A6-776D-46C9-A3E8-0C74088058E2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-ログアウト画面の注釈の6番につきまして
-「内部設計工程」は
-「internal design process」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{9488EC2F-D43D-4275-9BF3-CB74BBC918B1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」と
-訳してください。表の訳も同様に訂正をお願いいたします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
@@ -188,66 +95,6 @@
 5. Screen event details
 6. Screen event supplement (1) * This section is described in the internal design process.
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI11" authorId="0" shapeId="0" xr:uid="{B2623BF6-CAC3-4C7F-9DC4-DB5E7E54F2B2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:
-「Screen event overview」の注釈について</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-右のセルの注釈になっているため
-訂正をお願いいたします。
-以下、正しい原文です。
-どのような処理が実行され、どの画面に遷移するのかといった処理の概要を記述する。
-イベントの処理内容の詳細は、ここには書かず、「2.6.画面イベント詳細」に記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{22BCA343-70C1-4EFC-B7E4-28D9EC05EE6D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-注釈の6番につきまして
-「内部設計工程」は
-「internal design process」
-としてください。</t>
         </r>
       </text>
     </comment>
@@ -673,7 +520,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -839,21 +686,6 @@
       <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1547,6 +1379,111 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1583,24 +1520,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1610,24 +1529,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1664,74 +1565,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1751,78 +1655,6 @@
     <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1877,6 +1709,63 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1893,63 +1782,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2690,42 +2522,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2736,7 +2568,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2745,7 +2577,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2757,7 +2589,7 @@
       <c r="K25" s="121"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2766,7 +2598,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2775,7 +2607,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2784,7 +2616,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -2792,7 +2624,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -2801,7 +2633,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2810,7 +2642,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2819,7 +2651,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -2831,7 +2663,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -2846,515 +2678,515 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="34"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="33"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="35"/>
       <c r="P37" s="36"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="36"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -3378,169 +3210,169 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="170" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="140" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="173" t="s">
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="152" t="s">
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="170" t="s">
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="122" t="str">
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="157" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="128">
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="163">
         <v>43697</v>
       </c>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="130"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="165"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="170" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="140" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="170" t="s">
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="131" t="str">
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="166" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="128" t="str">
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="163" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="130"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="165"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="170" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="140" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="130"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="159"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="165"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="16" customFormat="1">
+    <row r="4" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3582,7 +3414,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3626,7 +3458,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3668,1034 +3500,1034 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="137" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="137" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="137" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="137" t="s">
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="137" t="s">
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="138"/>
-      <c r="AH7" s="138"/>
-      <c r="AI7" s="139"/>
-    </row>
-    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="149"/>
+    </row>
+    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="166">
+      <c r="C8" s="152"/>
+      <c r="D8" s="153">
         <v>43697</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="164" t="s">
+      <c r="E8" s="154"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="149" t="s">
+      <c r="H8" s="156"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="125" t="s">
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="149" t="s">
+      <c r="R8" s="161"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="161"/>
+      <c r="U8" s="161"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="161"/>
+      <c r="X8" s="161"/>
+      <c r="Y8" s="161"/>
+      <c r="Z8" s="161"/>
+      <c r="AA8" s="161"/>
+      <c r="AB8" s="161"/>
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="161"/>
+      <c r="AE8" s="162"/>
+      <c r="AF8" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="150"/>
-      <c r="AI8" s="151"/>
-    </row>
-    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="174"/>
+    </row>
+    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="145"/>
-      <c r="AF9" s="146"/>
-      <c r="AG9" s="147"/>
-      <c r="AH9" s="147"/>
-      <c r="AI9" s="148"/>
-    </row>
-    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="142"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="139"/>
+      <c r="AG9" s="140"/>
+      <c r="AH9" s="140"/>
+      <c r="AI9" s="141"/>
+    </row>
+    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="146"/>
-      <c r="AG10" s="147"/>
-      <c r="AH10" s="147"/>
-      <c r="AI10" s="148"/>
-    </row>
-    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="142"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="139"/>
+      <c r="AG10" s="140"/>
+      <c r="AH10" s="140"/>
+      <c r="AI10" s="141"/>
+    </row>
+    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="144"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="144"/>
-      <c r="AB11" s="144"/>
-      <c r="AC11" s="144"/>
-      <c r="AD11" s="144"/>
-      <c r="AE11" s="145"/>
-      <c r="AF11" s="146"/>
-      <c r="AG11" s="147"/>
-      <c r="AH11" s="147"/>
-      <c r="AI11" s="148"/>
-    </row>
-    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="137"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="140"/>
+      <c r="AH11" s="140"/>
+      <c r="AI11" s="141"/>
+    </row>
+    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="144"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="146"/>
-      <c r="AG12" s="147"/>
-      <c r="AH12" s="147"/>
-      <c r="AI12" s="148"/>
-    </row>
-    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="138"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="140"/>
+      <c r="AH12" s="140"/>
+      <c r="AI12" s="141"/>
+    </row>
+    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="146"/>
-      <c r="AG13" s="147"/>
-      <c r="AH13" s="147"/>
-      <c r="AI13" s="148"/>
-    </row>
-    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="142"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="140"/>
+      <c r="AH13" s="140"/>
+      <c r="AI13" s="141"/>
+    </row>
+    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="144"/>
-      <c r="AC14" s="144"/>
-      <c r="AD14" s="144"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="146"/>
-      <c r="AG14" s="147"/>
-      <c r="AH14" s="147"/>
-      <c r="AI14" s="148"/>
-    </row>
-    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="142"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="137"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="139"/>
+      <c r="AG14" s="140"/>
+      <c r="AH14" s="140"/>
+      <c r="AI14" s="141"/>
+    </row>
+    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
-      <c r="Z15" s="144"/>
-      <c r="AA15" s="144"/>
-      <c r="AB15" s="144"/>
-      <c r="AC15" s="144"/>
-      <c r="AD15" s="144"/>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="146"/>
-      <c r="AG15" s="147"/>
-      <c r="AH15" s="147"/>
-      <c r="AI15" s="148"/>
-    </row>
-    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="142"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="138"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="140"/>
+      <c r="AH15" s="140"/>
+      <c r="AI15" s="141"/>
+    </row>
+    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="144"/>
-      <c r="Z16" s="144"/>
-      <c r="AA16" s="144"/>
-      <c r="AB16" s="144"/>
-      <c r="AC16" s="144"/>
-      <c r="AD16" s="144"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="146"/>
-      <c r="AG16" s="147"/>
-      <c r="AH16" s="147"/>
-      <c r="AI16" s="148"/>
-    </row>
-    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="141"/>
+    </row>
+    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="144"/>
-      <c r="U17" s="144"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="144"/>
-      <c r="Z17" s="144"/>
-      <c r="AA17" s="144"/>
-      <c r="AB17" s="144"/>
-      <c r="AC17" s="144"/>
-      <c r="AD17" s="144"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="146"/>
-      <c r="AG17" s="147"/>
-      <c r="AH17" s="147"/>
-      <c r="AI17" s="148"/>
-    </row>
-    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="142"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="139"/>
+      <c r="AG17" s="140"/>
+      <c r="AH17" s="140"/>
+      <c r="AI17" s="141"/>
+    </row>
+    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="144"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="144"/>
-      <c r="U18" s="144"/>
-      <c r="V18" s="144"/>
-      <c r="W18" s="144"/>
-      <c r="X18" s="144"/>
-      <c r="Y18" s="144"/>
-      <c r="Z18" s="144"/>
-      <c r="AA18" s="144"/>
-      <c r="AB18" s="144"/>
-      <c r="AC18" s="144"/>
-      <c r="AD18" s="144"/>
-      <c r="AE18" s="145"/>
-      <c r="AF18" s="146"/>
-      <c r="AG18" s="147"/>
-      <c r="AH18" s="147"/>
-      <c r="AI18" s="148"/>
-    </row>
-    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="140"/>
+      <c r="AH18" s="140"/>
+      <c r="AI18" s="141"/>
+    </row>
+    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="144"/>
-      <c r="T19" s="144"/>
-      <c r="U19" s="144"/>
-      <c r="V19" s="144"/>
-      <c r="W19" s="144"/>
-      <c r="X19" s="144"/>
-      <c r="Y19" s="144"/>
-      <c r="Z19" s="144"/>
-      <c r="AA19" s="144"/>
-      <c r="AB19" s="144"/>
-      <c r="AC19" s="144"/>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="145"/>
-      <c r="AF19" s="146"/>
-      <c r="AG19" s="147"/>
-      <c r="AH19" s="147"/>
-      <c r="AI19" s="148"/>
-    </row>
-    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="142"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="140"/>
+      <c r="AH19" s="140"/>
+      <c r="AI19" s="141"/>
+    </row>
+    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="144"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="144"/>
-      <c r="Z20" s="144"/>
-      <c r="AA20" s="144"/>
-      <c r="AB20" s="144"/>
-      <c r="AC20" s="144"/>
-      <c r="AD20" s="144"/>
-      <c r="AE20" s="145"/>
-      <c r="AF20" s="146"/>
-      <c r="AG20" s="147"/>
-      <c r="AH20" s="147"/>
-      <c r="AI20" s="148"/>
-    </row>
-    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="140"/>
+      <c r="AH20" s="140"/>
+      <c r="AI20" s="141"/>
+    </row>
+    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="144"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="144"/>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="144"/>
-      <c r="Z21" s="144"/>
-      <c r="AA21" s="144"/>
-      <c r="AB21" s="144"/>
-      <c r="AC21" s="144"/>
-      <c r="AD21" s="144"/>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="146"/>
-      <c r="AG21" s="147"/>
-      <c r="AH21" s="147"/>
-      <c r="AI21" s="148"/>
-    </row>
-    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="142"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="140"/>
+      <c r="AH21" s="140"/>
+      <c r="AI21" s="141"/>
+    </row>
+    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="144"/>
-      <c r="W22" s="144"/>
-      <c r="X22" s="144"/>
-      <c r="Y22" s="144"/>
-      <c r="Z22" s="144"/>
-      <c r="AA22" s="144"/>
-      <c r="AB22" s="144"/>
-      <c r="AC22" s="144"/>
-      <c r="AD22" s="144"/>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="146"/>
-      <c r="AG22" s="147"/>
-      <c r="AH22" s="147"/>
-      <c r="AI22" s="148"/>
-    </row>
-    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="140"/>
+      <c r="AH22" s="140"/>
+      <c r="AI22" s="141"/>
+    </row>
+    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="144"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="144"/>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="144"/>
-      <c r="AA23" s="144"/>
-      <c r="AB23" s="144"/>
-      <c r="AC23" s="144"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="146"/>
-      <c r="AG23" s="147"/>
-      <c r="AH23" s="147"/>
-      <c r="AI23" s="148"/>
-    </row>
-    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="140"/>
+      <c r="AH23" s="140"/>
+      <c r="AI23" s="141"/>
+    </row>
+    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="144"/>
-      <c r="T24" s="144"/>
-      <c r="U24" s="144"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="144"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="144"/>
-      <c r="AA24" s="144"/>
-      <c r="AB24" s="144"/>
-      <c r="AC24" s="144"/>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="145"/>
-      <c r="AF24" s="146"/>
-      <c r="AG24" s="147"/>
-      <c r="AH24" s="147"/>
-      <c r="AI24" s="148"/>
-    </row>
-    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="140"/>
+      <c r="N24" s="140"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="141"/>
+      <c r="Q24" s="136"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="140"/>
+      <c r="AH24" s="140"/>
+      <c r="AI24" s="141"/>
+    </row>
+    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="144"/>
-      <c r="U25" s="144"/>
-      <c r="V25" s="144"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="144"/>
-      <c r="Y25" s="144"/>
-      <c r="Z25" s="144"/>
-      <c r="AA25" s="144"/>
-      <c r="AB25" s="144"/>
-      <c r="AC25" s="144"/>
-      <c r="AD25" s="144"/>
-      <c r="AE25" s="145"/>
-      <c r="AF25" s="146"/>
-      <c r="AG25" s="147"/>
-      <c r="AH25" s="147"/>
-      <c r="AI25" s="148"/>
-    </row>
-    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="142"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="140"/>
+      <c r="O25" s="140"/>
+      <c r="P25" s="141"/>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="140"/>
+      <c r="AH25" s="140"/>
+      <c r="AI25" s="141"/>
+    </row>
+    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="147"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="144"/>
-      <c r="S26" s="144"/>
-      <c r="T26" s="144"/>
-      <c r="U26" s="144"/>
-      <c r="V26" s="144"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="144"/>
-      <c r="Y26" s="144"/>
-      <c r="Z26" s="144"/>
-      <c r="AA26" s="144"/>
-      <c r="AB26" s="144"/>
-      <c r="AC26" s="144"/>
-      <c r="AD26" s="144"/>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="146"/>
-      <c r="AG26" s="147"/>
-      <c r="AH26" s="147"/>
-      <c r="AI26" s="148"/>
-    </row>
-    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="140"/>
+      <c r="AH26" s="140"/>
+      <c r="AI26" s="141"/>
+    </row>
+    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="144"/>
-      <c r="Y27" s="144"/>
-      <c r="Z27" s="144"/>
-      <c r="AA27" s="144"/>
-      <c r="AB27" s="144"/>
-      <c r="AC27" s="144"/>
-      <c r="AD27" s="144"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="146"/>
-      <c r="AG27" s="147"/>
-      <c r="AH27" s="147"/>
-      <c r="AI27" s="148"/>
-    </row>
-    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="139"/>
+      <c r="AG27" s="140"/>
+      <c r="AH27" s="140"/>
+      <c r="AI27" s="141"/>
+    </row>
+    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="144"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="144"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="144"/>
-      <c r="Z28" s="144"/>
-      <c r="AA28" s="144"/>
-      <c r="AB28" s="144"/>
-      <c r="AC28" s="144"/>
-      <c r="AD28" s="144"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="146"/>
-      <c r="AG28" s="147"/>
-      <c r="AH28" s="147"/>
-      <c r="AI28" s="148"/>
-    </row>
-    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="140"/>
+      <c r="AH28" s="140"/>
+      <c r="AI28" s="141"/>
+    </row>
+    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="148"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="144"/>
-      <c r="S29" s="144"/>
-      <c r="T29" s="144"/>
-      <c r="U29" s="144"/>
-      <c r="V29" s="144"/>
-      <c r="W29" s="144"/>
-      <c r="X29" s="144"/>
-      <c r="Y29" s="144"/>
-      <c r="Z29" s="144"/>
-      <c r="AA29" s="144"/>
-      <c r="AB29" s="144"/>
-      <c r="AC29" s="144"/>
-      <c r="AD29" s="144"/>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="146"/>
-      <c r="AG29" s="147"/>
-      <c r="AH29" s="147"/>
-      <c r="AI29" s="148"/>
-    </row>
-    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="142"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="140"/>
+      <c r="AH29" s="140"/>
+      <c r="AI29" s="141"/>
+    </row>
+    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="148"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="144"/>
-      <c r="T30" s="144"/>
-      <c r="U30" s="144"/>
-      <c r="V30" s="144"/>
-      <c r="W30" s="144"/>
-      <c r="X30" s="144"/>
-      <c r="Y30" s="144"/>
-      <c r="Z30" s="144"/>
-      <c r="AA30" s="144"/>
-      <c r="AB30" s="144"/>
-      <c r="AC30" s="144"/>
-      <c r="AD30" s="144"/>
-      <c r="AE30" s="145"/>
-      <c r="AF30" s="146"/>
-      <c r="AG30" s="147"/>
-      <c r="AH30" s="147"/>
-      <c r="AI30" s="148"/>
-    </row>
-    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="142"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="140"/>
+      <c r="N30" s="140"/>
+      <c r="O30" s="140"/>
+      <c r="P30" s="141"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="139"/>
+      <c r="AG30" s="140"/>
+      <c r="AH30" s="140"/>
+      <c r="AI30" s="141"/>
+    </row>
+    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="148"/>
-      <c r="Q31" s="143"/>
-      <c r="R31" s="144"/>
-      <c r="S31" s="144"/>
-      <c r="T31" s="144"/>
-      <c r="U31" s="144"/>
-      <c r="V31" s="144"/>
-      <c r="W31" s="144"/>
-      <c r="X31" s="144"/>
-      <c r="Y31" s="144"/>
-      <c r="Z31" s="144"/>
-      <c r="AA31" s="144"/>
-      <c r="AB31" s="144"/>
-      <c r="AC31" s="144"/>
-      <c r="AD31" s="144"/>
-      <c r="AE31" s="145"/>
-      <c r="AF31" s="146"/>
-      <c r="AG31" s="147"/>
-      <c r="AH31" s="147"/>
-      <c r="AI31" s="148"/>
-    </row>
-    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="142"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="141"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="139"/>
+      <c r="AG31" s="140"/>
+      <c r="AH31" s="140"/>
+      <c r="AI31" s="141"/>
+    </row>
+    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="148"/>
-      <c r="Q32" s="143"/>
-      <c r="R32" s="144"/>
-      <c r="S32" s="144"/>
-      <c r="T32" s="144"/>
-      <c r="U32" s="144"/>
-      <c r="V32" s="144"/>
-      <c r="W32" s="144"/>
-      <c r="X32" s="144"/>
-      <c r="Y32" s="144"/>
-      <c r="Z32" s="144"/>
-      <c r="AA32" s="144"/>
-      <c r="AB32" s="144"/>
-      <c r="AC32" s="144"/>
-      <c r="AD32" s="144"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="146"/>
-      <c r="AG32" s="147"/>
-      <c r="AH32" s="147"/>
-      <c r="AI32" s="148"/>
-    </row>
-    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="142"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="140"/>
+      <c r="P32" s="141"/>
+      <c r="Q32" s="136"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="140"/>
+      <c r="AI32" s="141"/>
+    </row>
+    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="143"/>
-      <c r="R33" s="144"/>
-      <c r="S33" s="144"/>
-      <c r="T33" s="144"/>
-      <c r="U33" s="144"/>
-      <c r="V33" s="144"/>
-      <c r="W33" s="144"/>
-      <c r="X33" s="144"/>
-      <c r="Y33" s="144"/>
-      <c r="Z33" s="144"/>
-      <c r="AA33" s="144"/>
-      <c r="AB33" s="144"/>
-      <c r="AC33" s="144"/>
-      <c r="AD33" s="144"/>
-      <c r="AE33" s="145"/>
-      <c r="AF33" s="146"/>
-      <c r="AG33" s="147"/>
-      <c r="AH33" s="147"/>
-      <c r="AI33" s="148"/>
-    </row>
-    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="140"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="140"/>
+      <c r="O33" s="140"/>
+      <c r="P33" s="141"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="139"/>
+      <c r="AG33" s="140"/>
+      <c r="AH33" s="140"/>
+      <c r="AI33" s="141"/>
+    </row>
+    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -4734,6 +4566,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -4758,161 +4745,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -4932,7 +4764,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="49" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="58" customWidth="1"/>
@@ -5067,161 +4899,161 @@
     <col min="16163" max="16384" width="4.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
-      <c r="A1" s="193" t="s">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="196" t="s">
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="205" t="str">
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10102/ログアウト</v>
       </c>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="193" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="211">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43697</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
-    </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
-      <c r="A2" s="193" t="s">
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="213"/>
+    </row>
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="193" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
-    </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
-      <c r="A3" s="193" t="s">
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="213"/>
+    </row>
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="184" t="str">
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
-    </row>
-    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="213"/>
+    </row>
+    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -5258,7 +5090,7 @@
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
     </row>
-    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -5297,7 +5129,7 @@
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
     </row>
-    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -5334,7 +5166,7 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
         <v>93</v>
@@ -5373,7 +5205,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="48"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
@@ -5412,7 +5244,7 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="48"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
@@ -5449,7 +5281,7 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="42"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
         <v>43</v>
@@ -5488,7 +5320,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="54" t="s">
@@ -5527,7 +5359,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
@@ -5561,7 +5393,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="55" t="s">
@@ -5600,7 +5432,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="54"/>
       <c r="C14" s="55" t="s">
@@ -5639,7 +5471,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
       <c r="B15" s="54"/>
       <c r="C15" s="55" t="s">
@@ -5674,7 +5506,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
@@ -5713,7 +5545,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
       <c r="B17" s="38"/>
       <c r="C17" s="57"/>
@@ -5749,7 +5581,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="59"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -5786,7 +5618,7 @@
       <c r="AH18" s="65"/>
       <c r="AI18" s="66"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="67"/>
       <c r="E19" s="67"/>
       <c r="F19" s="67"/>
@@ -5820,7 +5652,7 @@
       <c r="AH19" s="65"/>
       <c r="AI19" s="66"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J20" s="67"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
@@ -5848,7 +5680,7 @@
       <c r="AH20" s="65"/>
       <c r="AI20" s="66"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="59"/>
       <c r="L21" s="59"/>
       <c r="M21" s="59"/>
@@ -5875,7 +5707,7 @@
       <c r="AH21" s="70"/>
       <c r="AI21" s="59"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K22" s="67"/>
       <c r="L22" s="67"/>
       <c r="M22" s="67"/>
@@ -5900,7 +5732,7 @@
       <c r="AH22" s="76"/>
       <c r="AI22" s="72"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S23" s="72"/>
       <c r="T23" s="72"/>
       <c r="U23" s="73"/>
@@ -5919,7 +5751,7 @@
       <c r="AH23" s="79"/>
       <c r="AI23" s="72"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J24" s="67"/>
       <c r="Q24" s="80"/>
       <c r="S24" s="72"/>
@@ -5940,7 +5772,7 @@
       <c r="AH24" s="79"/>
       <c r="AI24" s="72"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S25" s="72"/>
       <c r="T25" s="72"/>
       <c r="U25" s="72"/>
@@ -5959,7 +5791,7 @@
       <c r="AH25" s="79"/>
       <c r="AI25" s="72"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="67"/>
       <c r="K26" s="67"/>
       <c r="L26" s="67"/>
@@ -5973,7 +5805,7 @@
       <c r="AH26" s="79"/>
       <c r="AI26" s="72"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="67"/>
       <c r="AE27" s="72"/>
       <c r="AF27" s="77"/>
@@ -5981,28 +5813,28 @@
       <c r="AH27" s="79"/>
       <c r="AI27" s="72"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE28" s="72"/>
       <c r="AF28" s="77"/>
       <c r="AG28" s="77"/>
       <c r="AH28" s="79"/>
       <c r="AI28" s="72"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF29" s="81"/>
       <c r="AG29" s="81"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG30" s="81"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF31" s="81"/>
       <c r="AG31" s="81"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG32" s="81"/>
     </row>
-    <row r="33" spans="1:34" ht="15" customHeight="1">
+    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S33" s="67"/>
       <c r="T33" s="67"/>
       <c r="V33" s="67"/>
@@ -6015,7 +5847,7 @@
       <c r="AC33" s="67"/>
       <c r="AD33" s="67"/>
     </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1">
+    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R34" s="67"/>
       <c r="S34" s="67"/>
       <c r="T34" s="67"/>
@@ -6030,10 +5862,10 @@
       <c r="AD34" s="67"/>
       <c r="AG34" s="81"/>
     </row>
-    <row r="35" spans="1:34" ht="15" customHeight="1">
+    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R35" s="67"/>
     </row>
-    <row r="36" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
@@ -6066,7 +5898,7 @@
       <c r="AD36" s="49"/>
       <c r="AH36" s="80"/>
     </row>
-    <row r="37" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
@@ -6101,6 +5933,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6110,14 +5950,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6128,7 +5960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6138,178 +5970,178 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1">
-      <c r="A1" s="193" t="s">
+    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="196" t="s">
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="205" t="str">
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10102/ログアウト</v>
       </c>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="193" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="211">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43697</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
-    </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1">
-      <c r="A2" s="193" t="s">
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="213"/>
+    </row>
+    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="193" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
-    </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1">
-      <c r="A3" s="193" t="s">
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="213"/>
+    </row>
+    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="184" t="str">
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1">
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="213"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="59" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1"/>
-    <row r="8" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="82"/>
       <c r="C8" s="224" t="s">
         <v>95</v>
@@ -6347,7 +6179,7 @@
       <c r="AF8" s="225"/>
       <c r="AG8" s="226"/>
     </row>
-    <row r="9" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="82"/>
       <c r="C9" s="229" t="s">
         <v>96</v>
@@ -6385,7 +6217,7 @@
       <c r="AF9" s="225"/>
       <c r="AG9" s="226"/>
     </row>
-    <row r="10" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="82"/>
       <c r="C10" s="215" t="s">
         <v>97</v>
@@ -6423,7 +6255,7 @@
       <c r="AF10" s="84"/>
       <c r="AG10" s="85"/>
     </row>
-    <row r="11" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="82"/>
       <c r="C11" s="218"/>
       <c r="D11" s="219"/>
@@ -6457,7 +6289,7 @@
       <c r="AF11" s="40"/>
       <c r="AG11" s="87"/>
     </row>
-    <row r="12" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="82"/>
       <c r="C12" s="218"/>
       <c r="D12" s="219"/>
@@ -6491,7 +6323,7 @@
       <c r="AF12" s="40"/>
       <c r="AG12" s="87"/>
     </row>
-    <row r="13" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="82"/>
       <c r="C13" s="221"/>
       <c r="D13" s="222"/>
@@ -6525,7 +6357,7 @@
       <c r="AF13" s="90"/>
       <c r="AG13" s="91"/>
     </row>
-    <row r="14" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:35" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="82"/>
       <c r="C14" s="214" t="s">
         <v>53</v>
@@ -6563,46 +6395,58 @@
       <c r="AF14" s="93"/>
       <c r="AG14" s="94"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
-    <row r="43" ht="12" customHeight="1"/>
-    <row r="44" ht="12" customHeight="1"/>
-    <row r="45" ht="12" customHeight="1"/>
-    <row r="46" ht="12" customHeight="1"/>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" ht="12" customHeight="1"/>
-    <row r="49" ht="12" customHeight="1"/>
-    <row r="50" ht="12" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1"/>
-    <row r="52" ht="12" customHeight="1"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6614,18 +6458,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6634,7 +6466,6 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6645,193 +6476,193 @@
   </sheetPr>
   <dimension ref="A1:BF41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="4.83203125" style="55"/>
     <col min="8" max="9" width="4.83203125" style="55" customWidth="1"/>
     <col min="10" max="16384" width="4.83203125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="37" customFormat="1" hidden="1">
-      <c r="A1" s="235" t="s">
+    <row r="1" spans="1:53" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="254" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="196" t="s">
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="205" t="str">
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10102/ログアウト</v>
       </c>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="193" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="232">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43697</v>
       </c>
-      <c r="AH1" s="233"/>
-      <c r="AI1" s="234"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
       <c r="AJ1" s="95"/>
     </row>
-    <row r="2" spans="1:53" s="37" customFormat="1" hidden="1">
-      <c r="A2" s="235" t="s">
+    <row r="2" spans="1:53" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="193" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="232" t="str">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="233"/>
-      <c r="AI2" s="234"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
       <c r="AJ2" s="95"/>
     </row>
-    <row r="3" spans="1:53" s="37" customFormat="1" hidden="1">
-      <c r="A3" s="235" t="s">
+    <row r="3" spans="1:53" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="184" t="str">
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="232" t="str">
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="233"/>
-      <c r="AI3" s="234"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
       <c r="AJ3" s="95"/>
     </row>
-    <row r="4" spans="1:53" ht="12" customHeight="1"/>
-    <row r="5" spans="1:53" ht="12" customHeight="1">
+    <row r="4" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="12" customHeight="1">
+    <row r="6" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="55" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="12" customHeight="1"/>
-    <row r="8" spans="1:53" ht="12" customHeight="1">
+    <row r="7" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:53" ht="12" customHeight="1"/>
-    <row r="10" spans="1:53">
+    <row r="9" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="C10" s="40" t="s">
         <v>45</v>
       </c>
@@ -6866,7 +6697,7 @@
       <c r="AG10" s="96"/>
       <c r="AH10" s="96"/>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="C11" s="40"/>
       <c r="D11" s="96"/>
       <c r="E11" s="96"/>
@@ -6899,16 +6730,16 @@
       <c r="AG11" s="96"/>
       <c r="AH11" s="96"/>
     </row>
-    <row r="12" spans="1:53" ht="11.25" customHeight="1">
+    <row r="12" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="55" t="s">
         <v>56</v>
       </c>
       <c r="O12" s="97"/>
     </row>
-    <row r="13" spans="1:53" ht="11.25" customHeight="1">
+    <row r="13" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O13" s="97"/>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="C14" s="55" t="s">
         <v>46</v>
       </c>
@@ -6930,10 +6761,10 @@
       <c r="AZ14" s="82"/>
       <c r="BA14" s="82"/>
     </row>
-    <row r="15" spans="1:53" ht="11.25" customHeight="1">
+    <row r="15" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AY15" s="57"/>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D16" s="98" t="s">
         <v>56</v>
       </c>
@@ -6977,7 +6808,7 @@
       <c r="AR16" s="42"/>
       <c r="AS16" s="42"/>
     </row>
-    <row r="17" spans="1:56">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
       <c r="D17" s="98"/>
       <c r="E17" s="99"/>
       <c r="F17" s="100"/>
@@ -7019,7 +6850,7 @@
       <c r="AR17" s="42"/>
       <c r="AS17" s="42"/>
     </row>
-    <row r="18" spans="1:56">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C18" s="55" t="s">
         <v>47</v>
       </c>
@@ -7064,7 +6895,7 @@
       <c r="AR18" s="42"/>
       <c r="AS18" s="42"/>
     </row>
-    <row r="19" spans="1:56" ht="11.25" customHeight="1">
+    <row r="19" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AI19" s="100"/>
       <c r="AJ19" s="100"/>
       <c r="AK19" s="42"/>
@@ -7081,7 +6912,7 @@
       <c r="AV19" s="42"/>
       <c r="AW19" s="42"/>
     </row>
-    <row r="20" spans="1:56">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
       <c r="D20" s="55" t="s">
         <v>56</v>
       </c>
@@ -7131,7 +6962,7 @@
       <c r="AZ20" s="42"/>
       <c r="BA20" s="42"/>
     </row>
-    <row r="21" spans="1:56">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
       <c r="D21" s="98"/>
       <c r="E21" s="99"/>
       <c r="F21" s="100"/>
@@ -7175,7 +7006,7 @@
       <c r="AZ21" s="42"/>
       <c r="BA21" s="42"/>
     </row>
-    <row r="22" spans="1:56">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C22" s="55" t="s">
         <v>48</v>
       </c>
@@ -7189,98 +7020,98 @@
       <c r="AZ22" s="42"/>
       <c r="BA22" s="42"/>
     </row>
-    <row r="24" spans="1:56" ht="11.25" customHeight="1">
+    <row r="24" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="104"/>
       <c r="D24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="238" t="s">
+      <c r="E24" s="232" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="239"/>
-      <c r="G24" s="239"/>
-      <c r="H24" s="239"/>
-      <c r="I24" s="239"/>
-      <c r="J24" s="240"/>
-      <c r="K24" s="238" t="s">
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="234"/>
+      <c r="K24" s="232" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="239"/>
-      <c r="M24" s="239"/>
-      <c r="N24" s="239"/>
-      <c r="O24" s="239"/>
-      <c r="P24" s="239"/>
-      <c r="Q24" s="256"/>
+      <c r="L24" s="233"/>
+      <c r="M24" s="233"/>
+      <c r="N24" s="233"/>
+      <c r="O24" s="233"/>
+      <c r="P24" s="233"/>
+      <c r="Q24" s="250"/>
       <c r="R24" s="224" t="s">
         <v>92</v>
       </c>
-      <c r="S24" s="239"/>
-      <c r="T24" s="239"/>
-      <c r="U24" s="239"/>
-      <c r="V24" s="239"/>
-      <c r="W24" s="239"/>
-      <c r="X24" s="239"/>
-      <c r="Y24" s="256"/>
-      <c r="Z24" s="250" t="s">
+      <c r="S24" s="233"/>
+      <c r="T24" s="233"/>
+      <c r="U24" s="233"/>
+      <c r="V24" s="233"/>
+      <c r="W24" s="233"/>
+      <c r="X24" s="233"/>
+      <c r="Y24" s="250"/>
+      <c r="Z24" s="244" t="s">
         <v>59</v>
       </c>
-      <c r="AA24" s="251"/>
-      <c r="AB24" s="251"/>
-      <c r="AC24" s="251"/>
-      <c r="AD24" s="252"/>
-      <c r="AE24" s="247" t="s">
+      <c r="AA24" s="245"/>
+      <c r="AB24" s="245"/>
+      <c r="AC24" s="245"/>
+      <c r="AD24" s="246"/>
+      <c r="AE24" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="AF24" s="248"/>
-      <c r="AG24" s="248"/>
-      <c r="AH24" s="249"/>
-    </row>
-    <row r="25" spans="1:56" ht="27" customHeight="1">
+      <c r="AF24" s="242"/>
+      <c r="AG24" s="242"/>
+      <c r="AH24" s="243"/>
+    </row>
+    <row r="25" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="106">
         <v>1</v>
       </c>
-      <c r="E25" s="241" t="s">
+      <c r="E25" s="235" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="242"/>
-      <c r="G25" s="242"/>
-      <c r="H25" s="242"/>
-      <c r="I25" s="242"/>
-      <c r="J25" s="243"/>
-      <c r="K25" s="244" t="s">
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="236"/>
+      <c r="J25" s="237"/>
+      <c r="K25" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="245"/>
-      <c r="M25" s="245"/>
-      <c r="N25" s="245"/>
-      <c r="O25" s="245"/>
-      <c r="P25" s="245"/>
-      <c r="Q25" s="246"/>
-      <c r="R25" s="244" t="s">
+      <c r="L25" s="239"/>
+      <c r="M25" s="239"/>
+      <c r="N25" s="239"/>
+      <c r="O25" s="239"/>
+      <c r="P25" s="239"/>
+      <c r="Q25" s="240"/>
+      <c r="R25" s="238" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="245"/>
-      <c r="T25" s="245"/>
-      <c r="U25" s="245"/>
-      <c r="V25" s="245"/>
-      <c r="W25" s="245"/>
-      <c r="X25" s="245"/>
-      <c r="Y25" s="246"/>
-      <c r="Z25" s="244" t="s">
+      <c r="S25" s="239"/>
+      <c r="T25" s="239"/>
+      <c r="U25" s="239"/>
+      <c r="V25" s="239"/>
+      <c r="W25" s="239"/>
+      <c r="X25" s="239"/>
+      <c r="Y25" s="240"/>
+      <c r="Z25" s="238" t="s">
         <v>63</v>
       </c>
-      <c r="AA25" s="245"/>
-      <c r="AB25" s="245"/>
-      <c r="AC25" s="245"/>
-      <c r="AD25" s="246"/>
-      <c r="AE25" s="253" t="s">
+      <c r="AA25" s="239"/>
+      <c r="AB25" s="239"/>
+      <c r="AC25" s="239"/>
+      <c r="AD25" s="240"/>
+      <c r="AE25" s="247" t="s">
         <v>64</v>
       </c>
-      <c r="AF25" s="254"/>
-      <c r="AG25" s="254"/>
-      <c r="AH25" s="255"/>
-    </row>
-    <row r="26" spans="1:56" s="57" customFormat="1">
+      <c r="AF25" s="248"/>
+      <c r="AG25" s="248"/>
+      <c r="AH25" s="249"/>
+    </row>
+    <row r="26" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D26" s="107"/>
       <c r="E26" s="108"/>
       <c r="F26" s="108"/>
@@ -7316,7 +7147,7 @@
       <c r="AO26" s="38"/>
       <c r="AP26" s="38"/>
     </row>
-    <row r="27" spans="1:56">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -7368,7 +7199,7 @@
       <c r="BA27" s="42"/>
       <c r="BB27" s="42"/>
     </row>
-    <row r="28" spans="1:56">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C28" s="42" t="s">
         <v>49</v>
       </c>
@@ -7394,7 +7225,7 @@
       <c r="BC28" s="42"/>
       <c r="BD28" s="42"/>
     </row>
-    <row r="29" spans="1:56" ht="11.25" customHeight="1">
+    <row r="29" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="42"/>
       <c r="D29" s="109" t="s">
         <v>65</v>
@@ -7416,7 +7247,7 @@
       <c r="BC29" s="42"/>
       <c r="BD29" s="42"/>
     </row>
-    <row r="30" spans="1:56" ht="11.25" customHeight="1">
+    <row r="30" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="42"/>
       <c r="D30" s="109"/>
       <c r="E30" s="109"/>
@@ -7436,7 +7267,7 @@
       <c r="BC30" s="42"/>
       <c r="BD30" s="42"/>
     </row>
-    <row r="31" spans="1:56" s="57" customFormat="1" ht="11.25" customHeight="1">
+    <row r="31" spans="1:56" s="57" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="38"/>
       <c r="D31" s="109"/>
       <c r="E31" s="109" t="s">
@@ -7444,19 +7275,19 @@
       </c>
       <c r="AP31" s="38"/>
     </row>
-    <row r="32" spans="1:56">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C32" s="42"/>
       <c r="D32" s="109"/>
       <c r="E32" s="109"/>
       <c r="F32" s="109"/>
     </row>
-    <row r="33" spans="1:58" ht="11.25" customHeight="1">
+    <row r="33" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="42"/>
       <c r="D33" s="109"/>
       <c r="E33" s="109"/>
       <c r="AP33" s="42"/>
     </row>
-    <row r="34" spans="1:58" s="57" customFormat="1">
+    <row r="34" spans="1:58" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="44"/>
       <c r="C34" s="38"/>
@@ -7493,7 +7324,7 @@
       <c r="AI34" s="111"/>
       <c r="AJ34" s="99"/>
     </row>
-    <row r="35" spans="1:58" s="57" customFormat="1">
+    <row r="35" spans="1:58" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AI35" s="112"/>
       <c r="AJ35" s="112"/>
       <c r="AK35" s="112"/>
@@ -7518,7 +7349,7 @@
       <c r="BD35" s="112"/>
       <c r="BE35" s="112"/>
     </row>
-    <row r="36" spans="1:58">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E36" s="55" t="s">
         <v>67</v>
       </c>
@@ -7547,7 +7378,7 @@
       <c r="BE36" s="113"/>
       <c r="BF36" s="113"/>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
       <c r="H37" s="44"/>
       <c r="AJ37" s="113"/>
       <c r="AK37" s="113"/>
@@ -7573,7 +7404,7 @@
       <c r="BE37" s="113"/>
       <c r="BF37" s="113"/>
     </row>
-    <row r="38" spans="1:58">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
       <c r="AJ38" s="113"/>
@@ -7600,7 +7431,7 @@
       <c r="BE38" s="113"/>
       <c r="BF38" s="113"/>
     </row>
-    <row r="39" spans="1:58">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E39" s="67"/>
       <c r="F39" s="114"/>
       <c r="G39" s="67"/>
@@ -7628,7 +7459,7 @@
       <c r="BE39" s="113"/>
       <c r="BF39" s="113"/>
     </row>
-    <row r="40" spans="1:58">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E40" s="67"/>
       <c r="F40" s="114"/>
       <c r="G40" s="67"/>
@@ -7656,7 +7487,7 @@
       <c r="BE40" s="113"/>
       <c r="BF40" s="113"/>
     </row>
-    <row r="41" spans="1:58">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E41" s="67"/>
       <c r="AJ41" s="113"/>
       <c r="AK41" s="113"/>
@@ -7684,6 +7515,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="E24:J24"/>
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="R25:Y25"/>
@@ -7697,20 +7542,6 @@
     <mergeCell ref="K25:Q25"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7744,7 +7575,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="55" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="55" bestFit="1" customWidth="1"/>
@@ -7753,7 +7584,7 @@
     <col min="5" max="16384" width="9.33203125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
         <v>68</v>
       </c>
@@ -7767,7 +7598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>39</v>
       </c>
@@ -7781,7 +7612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="118" t="s">
         <v>73</v>
       </c>
@@ -7795,7 +7626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="118" t="s">
         <v>77</v>
       </c>
@@ -7809,7 +7640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="118" t="s">
         <v>80</v>
       </c>
@@ -7820,7 +7651,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="118" t="s">
         <v>83</v>
       </c>
@@ -7828,7 +7659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="118" t="s">
         <v>85</v>
       </c>
@@ -7836,27 +7667,27 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="118" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="118" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="118" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="118" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="118" t="s">
         <v>91</v>
       </c>
